--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D081283-1495-4168-9839-1F42403ECE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72772AFB-CDB9-4897-85BD-D3996E5BDDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1EFD5581-6B3B-41F0-B496-B9439080F0EA}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -38,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>sno</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -53,7 +39,10 @@
     <t>aashish raj</t>
   </si>
   <si>
-    <t>number</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -408,17 +397,17 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -429,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>123</v>
@@ -440,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>123</v>
@@ -451,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>123</v>
